--- a/output/StructureDefinition-NatlDir-Location.xlsx
+++ b/output/StructureDefinition-NatlDir-Location.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/national-directory-query/StructureDefinition/NatlDir-Location</t>
+    <t>http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDir-Location</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T11:05:58-05:00</t>
+    <t>2021-12-17T13:53:37-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -115,7 +115,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-location</t>
+    <t>http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/NatlDir-Location</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -599,15 +599,15 @@
     <t>newpatients</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/national-directory-query/StructureDefinition/newpatients}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/newpatients}
 </t>
   </si>
   <si>
     <t>New Patients</t>
   </si>
   <si>
-    <t>New Patients indicates whether new patients are being accepted in general, or from a specific network.   
-              This extension is included in the PractitionerRole, HealthcareService, and Location profiles.  
+    <t>New Patients indicates whether new patients are being accepted in general, or from a specific network.   
+              This extension is included in the PractitionerRole, HealthcareService, and Location profiles.  
               This provides needed flexibility for specifying whether a provider accepts new patients by location and network.</t>
   </si>
   <si>
@@ -622,7 +622,7 @@
     <t>accessibility</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/national-directory-query/StructureDefinition/accessibility}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/accessibility}
 </t>
   </si>
   <si>
@@ -982,7 +982,7 @@
     <t>contactpoint-availabletime</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/national-directory-query/StructureDefinition/contactpoint-availabletime}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/contactpoint-availabletime}
 </t>
   </si>
   <si>
@@ -995,7 +995,7 @@
     <t>via-intermediary</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/national-directory-query/StructureDefinition/via-intermediary}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/via-intermediary}
 </t>
   </si>
   <si>
@@ -1466,7 +1466,7 @@
     <t>Location.managingOrganization</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/national-directory-query/StructureDefinition/NatlDir-Organization)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/NatlDir-Organization)
 </t>
   </si>
   <si>
@@ -1488,7 +1488,7 @@
     <t>Location.partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/national-directory-query/StructureDefinition/NatlDir-Location)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/NatlDir-Location)
 </t>
   </si>
   <si>
@@ -1591,7 +1591,7 @@
     <t>Location.endpoint</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/national-directory-query/StructureDefinition/NatlDir-Endpoint)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/NatlDir-Endpoint)
 </t>
   </si>
   <si>
